--- a/src/main/resources/tp/_export_estimated_tax.xlsx
+++ b/src/main/resources/tp/_export_estimated_tax.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9BB5CD-984D-4537-AD04-2A9E4B712B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA53E43-7E7A-48B8-9FE0-341ACA66D76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>预判应税</t>
-  </si>
-  <si>
-    <t>预估税金</t>
   </si>
   <si>
     <t>件数</t>
@@ -76,16 +73,7 @@
     <t>t.bill_no</t>
   </si>
   <si>
-    <t>t.main_gname</t>
-  </si>
-  <si>
     <t>t.taxable</t>
-  </si>
-  <si>
-    <t>t.taxes</t>
-  </si>
-  <si>
-    <t>n:t.quantity</t>
   </si>
   <si>
     <t>t.weight</t>
@@ -119,6 +107,22 @@
   </si>
   <si>
     <t>}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估税金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.estimated_tax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.pack_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.main_gname</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +490,7 @@
   <dimension ref="A1:P165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -496,7 +500,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
@@ -525,88 +529,88 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">

--- a/src/main/resources/tp/_export_estimated_tax.xlsx
+++ b/src/main/resources/tp/_export_estimated_tax.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA53E43-7E7A-48B8-9FE0-341ACA66D76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87F7734-87F5-414B-AFF1-04C5EB69D1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>t.main_gname</t>
+    <t>t.g_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -139,6 +139,7 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -490,7 +491,7 @@
   <dimension ref="A1:P165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/tp/_export_estimated_tax.xlsx
+++ b/src/main/resources/tp/_export_estimated_tax.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87F7734-87F5-414B-AFF1-04C5EB69D1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72390949-9781-485A-B408-C46DA1F25304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>预估税金</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>t.g_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.zip_code}}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -490,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -575,16 +575,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -611,7 +611,7 @@
         <v>23</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
